--- a/da-ptud-qllkmt/GUI/bin/Debug/BieuMauBaoHanh.xlsx
+++ b/da-ptud-qllkmt/GUI/bin/Debug/BieuMauBaoHanh.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\doan-cnpm\da-ptud-qllkmt\GUI\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DULIEUHOCTAP\ki6\doan\doan-cnpm\da-ptud-qllkmt\GUI\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0808CC01-2974-4E41-85B1-DE59EDC4B555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Công Ty Nguyễn Sơn</t>
   </si>
@@ -51,9 +50,6 @@
     <t>Tên Sản Phẩm</t>
   </si>
   <si>
-    <t>Ngày Lập</t>
-  </si>
-  <si>
     <t>Hồ chí minh, ngày %Ngay tháng %Thang năm %Nam</t>
   </si>
   <si>
@@ -73,9 +69,6 @@
   </si>
   <si>
     <t>%BieuMauBaoHanh.LyDo</t>
-  </si>
-  <si>
-    <t>%BieuMauBaoHanh.NgayLap</t>
   </si>
   <si>
     <t>Mã Nhân Viên</t>
@@ -99,8 +92,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,13 +120,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -149,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -226,19 +212,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -269,14 +242,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -284,21 +251,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -310,26 +270,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,7 +279,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -619,158 +568,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="32.3984375" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="33.8984375" customWidth="1"/>
-    <col min="6" max="6" width="47.59765625" customWidth="1"/>
+    <col min="5" max="5" width="33.875" customWidth="1"/>
+    <col min="6" max="6" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="28"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="29"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/da-ptud-qllkmt/GUI/bin/Debug/BieuMauBaoHanh.xlsx
+++ b/da-ptud-qllkmt/GUI/bin/Debug/BieuMauBaoHanh.xlsx
@@ -20,7 +20,7 @@
     <definedName name="BieuMauMua.SoLuong">Sheet1!$C$6</definedName>
     <definedName name="BieuMauMua.TenSanPham">Sheet1!$B$6</definedName>
     <definedName name="BieuMauMua.TongTien">Sheet1!$D$6</definedName>
-    <definedName name="BieuMauMua.TongTienHoaDon">Sheet1!$E$6</definedName>
+    <definedName name="BieuMauMua.TongTienHoaDon">Sheet1!$E$7</definedName>
     <definedName name="NgayThangNam">Sheet1!$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Công Ty Nguyễn Sơn</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Tên Sản Phẩm</t>
   </si>
   <si>
-    <t>Hồ chí minh, ngày %Ngay tháng %Thang năm %Nam</t>
-  </si>
-  <si>
     <t>Seri</t>
   </si>
   <si>
@@ -87,6 +84,12 @@
   </si>
   <si>
     <t>%MaBaoHanh</t>
+  </si>
+  <si>
+    <t>Ngày Trả</t>
+  </si>
+  <si>
+    <t>%DuKien</t>
   </si>
 </sst>
 </file>
@@ -121,7 +124,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +137,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -242,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,6 +264,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -273,6 +286,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -280,13 +299,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -571,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -586,46 +598,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="16"/>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -633,7 +649,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -643,28 +659,27 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,50 +687,48 @@
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
